--- a/PythonDataVisualization.xlsx
+++ b/PythonDataVisualization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Майя\Дз уни\Deggendorf Institute of Technology\Innovation and Complexity Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8507BDB3-F651-4AD5-9AC1-C4EAEAC4CCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DDB57E-4FA5-4C57-AA2C-894DE137DD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -406,22 +406,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -445,9 +434,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -730,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4187,101 +4173,6 @@
       </c>
       <c r="AE36" s="8">
         <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" s="9">
-        <v>3</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37" s="9">
-        <v>5</v>
-      </c>
-      <c r="F37">
-        <v>6</v>
-      </c>
-      <c r="G37" s="9">
-        <v>7</v>
-      </c>
-      <c r="H37">
-        <v>8</v>
-      </c>
-      <c r="I37" s="9">
-        <v>9</v>
-      </c>
-      <c r="J37">
-        <v>10</v>
-      </c>
-      <c r="K37" s="9">
-        <v>11</v>
-      </c>
-      <c r="L37">
-        <v>12</v>
-      </c>
-      <c r="M37" s="9">
-        <v>13</v>
-      </c>
-      <c r="N37">
-        <v>14</v>
-      </c>
-      <c r="O37" s="9">
-        <v>15</v>
-      </c>
-      <c r="P37">
-        <v>16</v>
-      </c>
-      <c r="Q37" s="9">
-        <v>17</v>
-      </c>
-      <c r="R37">
-        <v>18</v>
-      </c>
-      <c r="S37" s="9">
-        <v>19</v>
-      </c>
-      <c r="T37">
-        <v>20</v>
-      </c>
-      <c r="U37" s="9">
-        <v>21</v>
-      </c>
-      <c r="V37">
-        <v>22</v>
-      </c>
-      <c r="W37" s="9">
-        <v>23</v>
-      </c>
-      <c r="X37">
-        <v>24</v>
-      </c>
-      <c r="Y37" s="9">
-        <v>25</v>
-      </c>
-      <c r="Z37">
-        <v>26</v>
-      </c>
-      <c r="AA37" s="9">
-        <v>27</v>
-      </c>
-      <c r="AB37">
-        <v>28</v>
-      </c>
-      <c r="AC37" s="9">
-        <v>29</v>
-      </c>
-      <c r="AD37">
-        <v>30</v>
-      </c>
-      <c r="AE37" s="9">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
